--- a/projects/EcoFoci/m2_pps_0523/data/m2_pps_0523_faire.xlsx
+++ b/projects/EcoFoci/m2_pps_0523/data/m2_pps_0523_faire.xlsx
@@ -5118,8 +5118,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
-        <v/>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
@@ -5750,8 +5752,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -6382,8 +6386,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -7014,8 +7020,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -7646,8 +7654,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -8278,8 +8288,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -8910,8 +8922,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -9542,8 +9556,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -10174,8 +10190,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -10806,8 +10824,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -11438,8 +11458,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -12070,8 +12092,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -12702,8 +12726,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -13334,8 +13360,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -13966,8 +13994,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -14598,8 +14628,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -15230,8 +15262,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -15862,8 +15896,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -16494,8 +16530,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -17126,8 +17164,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -17758,8 +17798,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -18390,8 +18432,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -19022,8 +19066,10 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Blank.Alaska.Set7</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
